--- a/arch-automate/automate-core/src/test/resources/xls/uni-life-pms.xlsx
+++ b/arch-automate/automate-core/src/test/resources/xls/uni-life-pms.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="10730"/>
+    <workbookView windowWidth="21030" windowHeight="10730"/>
   </bookViews>
   <sheets>
     <sheet name="Product" sheetId="22" r:id="rId1"/>
@@ -46,7 +46,7 @@
     <t>备注/Comment</t>
   </si>
   <si>
-    <t>产品-店铺/ProductStore</t>
+    <t>table/ProductStore/产品-店铺</t>
   </si>
   <si>
     <t>bigint</t>
@@ -145,7 +145,7 @@
     <t>时间戳</t>
   </si>
   <si>
-    <t>产品-分类/ProductCategory</t>
+    <t>table/ProductCategory/产品-分类</t>
   </si>
   <si>
     <t>pid</t>
@@ -235,8 +235,7 @@
     <t>单位</t>
   </si>
   <si>
-    <t>产品-规格组，规格参数的分组表，
-每个商品分类下有多个规格参数组/ProductAttrGroup</t>
+    <t>table/ProductAttrGroup/产品-规格组，规格参数的分组表，每个商品分类下有多个规格参数组</t>
   </si>
   <si>
     <t>categoryId</t>
@@ -260,8 +259,7 @@
     <t>排序</t>
   </si>
   <si>
-    <t>产品-规格参数组下的
-参数名/ProductAttrName</t>
+    <t>table/ProductAttrName/产品-规格参数组下的参数名</t>
   </si>
   <si>
     <t>商品分类id</t>
@@ -360,7 +358,7 @@
     <t>是否用于搜索过滤，true或false</t>
   </si>
   <si>
-    <t>产品-属性值/ProductAttrVal</t>
+    <t>table/ProductAttrVal/产品-属性值</t>
   </si>
   <si>
     <t>spuId</t>
@@ -384,7 +382,7 @@
     <t>st</t>
   </si>
   <si>
-    <t>产品-品牌/ProductBrand</t>
+    <t>table/ProductBrand/产品-品牌</t>
   </si>
   <si>
     <t>类目id</t>
@@ -405,7 +403,7 @@
     <t>顺序</t>
   </si>
   <si>
-    <t>产品-SPU/ProductSpu</t>
+    <t>table/ProductSpu/产品-SPU</t>
   </si>
   <si>
     <t>店铺ID</t>
@@ -564,7 +562,7 @@
     <t>运费模板ID</t>
   </si>
   <si>
-    <t>产品-佐料/ProductRelish</t>
+    <t>table/ProductRelish/产品-佐料</t>
   </si>
   <si>
     <t>giftGrowth</t>
@@ -585,7 +583,7 @@
     <t>限制使用的积分数</t>
   </si>
   <si>
-    <t>产品-SKU/ProductSku</t>
+    <t>table/ProductSku/产品-SKU</t>
   </si>
   <si>
     <t>skuCode</t>
@@ -627,7 +625,7 @@
     <t>规格组集合（sku专用）：{groupName1:[{"key":"spec-k1","value":"spec-v1"，sorted:1}]，groupName2:[{"key":"spec-k2","value":"spec-v2"，sorted:2}]}</t>
   </si>
   <si>
-    <t>产品-相册/ProductAlbum</t>
+    <t>table/ProductAlbum/产品-相册</t>
   </si>
   <si>
     <t>albumName</t>
@@ -645,7 +643,7 @@
     <t>相册封面</t>
   </si>
   <si>
-    <t>产品-相册图片/ProductAlbumPic</t>
+    <t>table/ProductAlbumPic/产品-相册图片</t>
   </si>
   <si>
     <t>albumId</t>
@@ -666,7 +664,7 @@
     <t>图片名称</t>
   </si>
   <si>
-    <t>产品-售后及服务/ProductAftersale</t>
+    <t>table/ProductAftersale/产品-售后及服务</t>
   </si>
   <si>
     <t>serviceId</t>
@@ -687,7 +685,7 @@
     <t>费用</t>
   </si>
   <si>
-    <t>产品-费用模板/ProductFreight</t>
+    <t>table/ProductFreight/产品-费用模板</t>
   </si>
   <si>
     <t>品类ID</t>
@@ -726,7 +724,7 @@
     <t>物流CODE</t>
   </si>
   <si>
-    <t>产品-价格(针对批发)/ProductPrice</t>
+    <t>table/ProductPrice/产品-价格(针对批发)</t>
   </si>
   <si>
     <t>count</t>
@@ -744,7 +742,7 @@
     <t>折后价格</t>
   </si>
   <si>
-    <t>产品-营销/ProductMarketing</t>
+    <t>table/ProductMarketing/产品-营销</t>
   </si>
   <si>
     <t>marketingId</t>
@@ -762,9 +760,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -805,6 +803,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -813,16 +825,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -835,30 +848,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -873,15 +871,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -895,25 +885,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -927,6 +901,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
@@ -936,14 +942,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -964,7 +962,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -976,97 +1106,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1084,7 +1130,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1097,54 +1143,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1184,11 +1182,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1211,17 +1215,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1241,6 +1236,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1252,21 +1265,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1284,148 +1282,148 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1793,12 +1791,12 @@
   <dimension ref="A1:J155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A13" sqref="A13:A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="38.925" customWidth="1"/>
+    <col min="1" max="1" width="48.9166666666667" customWidth="1"/>
     <col min="2" max="2" width="16.8583333333333" customWidth="1"/>
     <col min="3" max="3" width="20.075" customWidth="1"/>
     <col min="4" max="4" width="14.575" hidden="1" customWidth="1"/>
